--- a/biology/Médecine/Syndrome_de_Van_der_Woude/Syndrome_de_Van_der_Woude.xlsx
+++ b/biology/Médecine/Syndrome_de_Van_der_Woude/Syndrome_de_Van_der_Woude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Van der Woude est la première cause de fente labiale ou palatine en rapport avec une mutation d'un gène unique (hérédité dite mendélienne).
@@ -513,9 +525,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Bryan Cary Bjork, Katherine Nash Krahn, Brian C Schutte, Jeffrey C Murray, IRF6-Related Disorders In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Bryan Cary Bjork, Katherine Nash Krahn, Brian C Schutte, Jeffrey C Murray, IRF6-Related Disorders In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine   Portail du handicap                    </t>
         </is>
       </c>
